--- a/新建 Microsoft Excel 工作表.xlsx
+++ b/新建 Microsoft Excel 工作表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="116">
   <si>
     <t>QQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,10 +29,6 @@
   </si>
   <si>
     <t>密码     passwore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昵称     nickname</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -443,6 +439,62 @@
   </si>
   <si>
     <t>主页-平板电脑*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册填入0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  默认男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等于账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mall.jumper.com.显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两次密码不一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入图片验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入校验码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入正确格式的手机号/邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称     nickname</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -582,10 +634,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -597,11 +652,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -910,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -927,256 +979,295 @@
     <col min="10" max="10" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="11"/>
+    <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="13"/>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
+      <c r="F3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
       <c r="C4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
+      <c r="G9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
       <c r="C10" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
+      <c r="G10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
       <c r="C11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
       <c r="C12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
+        <v>74</v>
+      </c>
+      <c r="G12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
       <c r="C13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="11"/>
+        <v>73</v>
+      </c>
+      <c r="F13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="13"/>
       <c r="C15" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
       <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" t="s">
+    <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" t="s">
+    <row r="20" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="21" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
       <c r="C21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" t="s">
+    <row r="23" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" t="s">
+      <c r="B29" s="17"/>
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" t="s">
-        <v>44</v>
-      </c>
       <c r="D30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
       <c r="C32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" t="s">
+    <row r="34" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" t="s">
+    <row r="35" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1184,337 +1275,337 @@
       <c r="B37" s="2"/>
     </row>
     <row r="38" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="11"/>
+      <c r="A38" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="13"/>
       <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" t="s">
+      <c r="D39" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="3" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="13"/>
+      <c r="C45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="11"/>
-      <c r="C45" t="s">
+    </row>
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" t="s">
         <v>26</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" t="s">
+      <c r="D46" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" t="s">
-        <v>28</v>
-      </c>
       <c r="D47" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="49" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
       <c r="C49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" t="s">
+    <row r="51" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" t="s">
+    <row r="52" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+      <c r="C52" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="54" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B54" s="14"/>
+      <c r="A54" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" s="15"/>
       <c r="C54" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" t="s">
         <v>45</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57"/>
+    </row>
+    <row r="58" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+    </row>
+    <row r="59" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="D59" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" t="s">
-        <v>46</v>
-      </c>
-      <c r="D55" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-      <c r="C56" t="s">
-        <v>51</v>
-      </c>
-      <c r="D56" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="C57" t="s">
-        <v>50</v>
-      </c>
-      <c r="D57"/>
-    </row>
-    <row r="58" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
-    </row>
-    <row r="59" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
-      <c r="D59" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
     <row r="60" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="15"/>
     </row>
     <row r="61" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="62" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B62" s="15"/>
+      <c r="A62" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="16"/>
       <c r="C62" t="s">
+        <v>52</v>
+      </c>
+      <c r="D62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
+      <c r="C63" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D64"/>
+    </row>
+    <row r="65" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+      <c r="C65" t="s">
         <v>53</v>
       </c>
-      <c r="D62" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="15"/>
-      <c r="B63" s="15"/>
-      <c r="C63" t="s">
-        <v>39</v>
-      </c>
-      <c r="D63" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="15"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D64"/>
-    </row>
-    <row r="65" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="15"/>
-      <c r="B65" s="15"/>
-      <c r="C65" t="s">
-        <v>54</v>
-      </c>
       <c r="D65"/>
     </row>
     <row r="66" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="15"/>
-      <c r="B66" s="15"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
       <c r="C66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D66"/>
     </row>
     <row r="67" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="68" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="15"/>
+      <c r="C68" t="s">
+        <v>51</v>
+      </c>
+      <c r="D68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="15"/>
+      <c r="B69" s="15"/>
+      <c r="C69" t="s">
+        <v>38</v>
+      </c>
+      <c r="D69" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="15"/>
+      <c r="B70" s="15"/>
+      <c r="C70" t="s">
+        <v>81</v>
+      </c>
+      <c r="D70"/>
+    </row>
+    <row r="71" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="15"/>
+      <c r="B71" s="15"/>
+      <c r="C71" t="s">
+        <v>79</v>
+      </c>
+      <c r="D71"/>
+    </row>
+    <row r="72" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="15"/>
+      <c r="B72" s="15"/>
+      <c r="C72" t="s">
+        <v>80</v>
+      </c>
+      <c r="D72"/>
+    </row>
+    <row r="74" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B68" s="14"/>
-      <c r="C68" t="s">
-        <v>52</v>
-      </c>
-      <c r="D68" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="14"/>
-      <c r="B69" s="14"/>
-      <c r="C69" t="s">
+      <c r="B74" s="13"/>
+      <c r="C74" t="s">
         <v>39</v>
       </c>
-      <c r="D69" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="14"/>
-      <c r="B70" s="14"/>
-      <c r="C70" t="s">
+    </row>
+    <row r="75" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="13"/>
+      <c r="B75" s="13"/>
+      <c r="C75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="13"/>
+      <c r="B76" s="13"/>
+      <c r="C76" t="s">
+        <v>38</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="13"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D70"/>
-    </row>
-    <row r="71" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="14"/>
-      <c r="B71" s="14"/>
-      <c r="C71" t="s">
-        <v>80</v>
-      </c>
-      <c r="D71"/>
-    </row>
-    <row r="72" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="14"/>
-      <c r="B72" s="14"/>
-      <c r="C72" t="s">
-        <v>81</v>
-      </c>
-      <c r="D72"/>
-    </row>
-    <row r="74" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B74" s="11"/>
-      <c r="C74" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="11"/>
-      <c r="B75" s="11"/>
-      <c r="C75" t="s">
-        <v>19</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="11"/>
-      <c r="B76" s="11"/>
-      <c r="C76" t="s">
-        <v>39</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="11"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="3" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="11"/>
-      <c r="B78" s="11"/>
+      <c r="A78" s="13"/>
+      <c r="B78" s="13"/>
       <c r="C78" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" s="13"/>
+      <c r="B79" s="13"/>
+      <c r="C79" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
-      <c r="C79" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A83" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83" s="10">
         <v>1</v>
@@ -1527,15 +1618,17 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>85</v>
-      </c>
-      <c r="B84" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="B84" s="1">
+        <v>11</v>
+      </c>
       <c r="C84" s="1"/>
       <c r="E84" s="1"/>
     </row>
     <row r="85" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -1543,7 +1636,7 @@
     </row>
     <row r="86" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -1555,7 +1648,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -1563,7 +1656,7 @@
     </row>
     <row r="88" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A88" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B88" s="10">
         <v>1</v>
@@ -1576,32 +1669,34 @@
       <c r="J88" s="10"/>
     </row>
     <row r="89" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="B89" s="17">
+      <c r="A89" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B89" s="12">
         <v>1</v>
       </c>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
     </row>
     <row r="90" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="16"/>
-      <c r="B90" s="17"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="16"/>
+      <c r="A90" s="11"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
     </row>
     <row r="91" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="16"/>
-      <c r="B91" s="17"/>
-      <c r="C91" s="16"/>
-      <c r="D91" s="16"/>
+      <c r="A91" s="11"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
     </row>
     <row r="92" spans="1:10" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A92" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B92" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="B92" s="7">
+        <v>1</v>
+      </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
@@ -1611,7 +1706,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -1619,7 +1714,7 @@
     </row>
     <row r="94" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A94" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -1631,21 +1726,21 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
     </row>
     <row r="96" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A96" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
     </row>
     <row r="97" spans="1:10" s="6" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A97" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -1656,7 +1751,7 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.15">
@@ -1665,7 +1760,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E102" s="1"/>
     </row>
@@ -1674,11 +1769,7 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="D89:D91"/>
-    <mergeCell ref="A74:B79"/>
+    <mergeCell ref="A1:B13"/>
     <mergeCell ref="A26:B27"/>
     <mergeCell ref="A68:B72"/>
     <mergeCell ref="A54:B60"/>
@@ -1687,7 +1778,11 @@
     <mergeCell ref="A45:B52"/>
     <mergeCell ref="A29:B35"/>
     <mergeCell ref="A38:B43"/>
-    <mergeCell ref="A1:B13"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="D89:D91"/>
+    <mergeCell ref="A74:B79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/新建 Microsoft Excel 工作表.xlsx
+++ b/新建 Microsoft Excel 工作表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="118">
   <si>
     <t>QQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -495,6 +495,14 @@
   </si>
   <si>
     <t>昵称     nickname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找回密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码已经发至您的邮箱！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,7 +513,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,8 +578,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -590,8 +607,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -599,14 +621,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -634,12 +674,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -655,10 +689,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="输出" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -962,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -980,147 +1025,173 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="11"/>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="18" t="s">
         <v>102</v>
       </c>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="18" t="s">
         <v>103</v>
       </c>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="18" t="s">
         <v>104</v>
       </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
       <c r="C4" t="s">
         <v>115</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="18" t="s">
         <v>106</v>
       </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="18" t="s">
         <v>105</v>
       </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
       <c r="C6" t="s">
         <v>14</v>
       </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
       <c r="C7" t="s">
         <v>15</v>
       </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
       <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="18" t="s">
         <v>108</v>
       </c>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
       <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="G9" t="s">
+      <c r="F9" s="18"/>
+      <c r="G9" s="18" t="s">
         <v>109</v>
       </c>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
       <c r="C10" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="G10" t="s">
+      <c r="F10" s="18"/>
+      <c r="G10" s="18" t="s">
         <v>110</v>
       </c>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
       <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="G11" t="s">
+      <c r="F11" s="18"/>
+      <c r="G11" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="19" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
       <c r="C12" t="s">
         <v>74</v>
       </c>
-      <c r="G12" t="s">
+      <c r="F12" s="18"/>
+      <c r="G12" s="18" t="s">
         <v>113</v>
       </c>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
       <c r="C13" t="s">
         <v>73</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="18" t="s">
         <v>114</v>
       </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="11"/>
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -1129,8 +1200,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -1138,67 +1209,73 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
+    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
       <c r="C17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
+      <c r="F17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
       <c r="C18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
+    <row r="19" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
       <c r="C19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
+      <c r="F19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
       <c r="C20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
+    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
       <c r="C21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
+    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
       <c r="C22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
+    <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
       <c r="C23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
+    <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
       <c r="C24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="14" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="14"/>
+      <c r="B26" s="12"/>
       <c r="C26" t="s">
         <v>42</v>
       </c>
@@ -1206,18 +1283,18 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
+    <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
       <c r="C27" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="17" t="s">
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="17"/>
+      <c r="B29" s="15"/>
       <c r="C29" t="s">
         <v>48</v>
       </c>
@@ -1225,9 +1302,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
+    <row r="30" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
       <c r="C30" t="s">
         <v>43</v>
       </c>
@@ -1235,37 +1312,37 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
+    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
       <c r="C31" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
+    <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
       <c r="C32" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
       <c r="C33" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
       <c r="C34" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
       <c r="C35" t="s">
         <v>32</v>
       </c>
@@ -1275,10 +1352,10 @@
       <c r="B37" s="2"/>
     </row>
     <row r="38" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="13"/>
+      <c r="B38" s="11"/>
       <c r="C38" t="s">
         <v>17</v>
       </c>
@@ -1287,8 +1364,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
       <c r="C39" t="s">
         <v>18</v>
       </c>
@@ -1297,8 +1374,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
       <c r="C40" t="s">
         <v>38</v>
       </c>
@@ -1307,26 +1384,26 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
       <c r="C41" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B45" s="13"/>
+      <c r="B45" s="11"/>
       <c r="C45" t="s">
         <v>25</v>
       </c>
@@ -1335,8 +1412,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
       <c r="C46" t="s">
         <v>26</v>
       </c>
@@ -1345,8 +1422,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
       <c r="C47" t="s">
         <v>27</v>
       </c>
@@ -1355,46 +1432,46 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
       <c r="C48" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
       <c r="C49" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
       <c r="C50" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
       <c r="C51" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
       <c r="C52" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="54" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B54" s="15"/>
+      <c r="B54" s="13"/>
       <c r="C54" t="s">
         <v>44</v>
       </c>
@@ -1403,8 +1480,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="15"/>
-      <c r="B55" s="15"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
       <c r="C55" t="s">
         <v>45</v>
       </c>
@@ -1413,8 +1490,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="15"/>
-      <c r="B56" s="15"/>
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
       <c r="C56" t="s">
         <v>50</v>
       </c>
@@ -1423,34 +1500,34 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="15"/>
-      <c r="B57" s="15"/>
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
       <c r="C57" t="s">
         <v>49</v>
       </c>
       <c r="D57"/>
     </row>
     <row r="58" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="15"/>
-      <c r="B58" s="15"/>
+      <c r="A58" s="13"/>
+      <c r="B58" s="13"/>
     </row>
     <row r="59" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="15"/>
-      <c r="B59" s="15"/>
+      <c r="A59" s="13"/>
+      <c r="B59" s="13"/>
       <c r="D59" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="15"/>
-      <c r="B60" s="15"/>
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
     </row>
     <row r="61" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="62" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B62" s="16"/>
+      <c r="B62" s="14"/>
       <c r="C62" t="s">
         <v>52</v>
       </c>
@@ -1459,8 +1536,8 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="16"/>
-      <c r="B63" s="16"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
       <c r="C63" t="s">
         <v>38</v>
       </c>
@@ -1469,24 +1546,24 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="16"/>
-      <c r="B64" s="16"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
       <c r="C64" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D64"/>
     </row>
     <row r="65" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="16"/>
-      <c r="B65" s="16"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
       <c r="C65" t="s">
         <v>53</v>
       </c>
       <c r="D65"/>
     </row>
     <row r="66" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="16"/>
-      <c r="B66" s="16"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
       <c r="C66" t="s">
         <v>77</v>
       </c>
@@ -1494,10 +1571,10 @@
     </row>
     <row r="67" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="68" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="15" t="s">
+      <c r="A68" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B68" s="15"/>
+      <c r="B68" s="13"/>
       <c r="C68" t="s">
         <v>51</v>
       </c>
@@ -1506,8 +1583,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="15"/>
-      <c r="B69" s="15"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="13"/>
       <c r="C69" t="s">
         <v>38</v>
       </c>
@@ -1516,41 +1593,41 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="15"/>
-      <c r="B70" s="15"/>
+      <c r="A70" s="13"/>
+      <c r="B70" s="13"/>
       <c r="C70" t="s">
         <v>81</v>
       </c>
       <c r="D70"/>
     </row>
     <row r="71" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="15"/>
-      <c r="B71" s="15"/>
+      <c r="A71" s="13"/>
+      <c r="B71" s="13"/>
       <c r="C71" t="s">
         <v>79</v>
       </c>
       <c r="D71"/>
     </row>
     <row r="72" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="15"/>
-      <c r="B72" s="15"/>
+      <c r="A72" s="13"/>
+      <c r="B72" s="13"/>
       <c r="C72" t="s">
         <v>80</v>
       </c>
       <c r="D72"/>
     </row>
     <row r="74" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="13" t="s">
+      <c r="A74" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B74" s="13"/>
+      <c r="B74" s="11"/>
       <c r="C74" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="13"/>
-      <c r="B75" s="13"/>
+      <c r="A75" s="11"/>
+      <c r="B75" s="11"/>
       <c r="C75" t="s">
         <v>18</v>
       </c>
@@ -1559,8 +1636,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="13"/>
-      <c r="B76" s="13"/>
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
       <c r="C76" t="s">
         <v>38</v>
       </c>
@@ -1569,22 +1646,22 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="13"/>
-      <c r="B77" s="13"/>
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
       <c r="C77" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="13"/>
-      <c r="B78" s="13"/>
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
       <c r="C78" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" s="13"/>
-      <c r="B79" s="13"/>
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
       <c r="C79" t="s">
         <v>76</v>
       </c>
@@ -1669,26 +1746,26 @@
       <c r="J88" s="10"/>
     </row>
     <row r="89" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="11" t="s">
+      <c r="A89" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B89" s="12">
+      <c r="B89" s="17">
         <v>1</v>
       </c>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
     </row>
     <row r="90" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="11"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
+      <c r="A90" s="16"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="16"/>
     </row>
     <row r="91" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="11"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
+      <c r="A91" s="16"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
     </row>
     <row r="92" spans="1:10" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A92" s="8" t="s">
@@ -1769,6 +1846,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="D89:D91"/>
+    <mergeCell ref="A74:B79"/>
     <mergeCell ref="A1:B13"/>
     <mergeCell ref="A26:B27"/>
     <mergeCell ref="A68:B72"/>
@@ -1778,11 +1860,6 @@
     <mergeCell ref="A45:B52"/>
     <mergeCell ref="A29:B35"/>
     <mergeCell ref="A38:B43"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="D89:D91"/>
-    <mergeCell ref="A74:B79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
